--- a/spec/files/0_1_09_small_list.xlsx
+++ b/spec/files/0_1_09_small_list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28360" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="51200" windowHeight="28260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -4243,7 +4243,13 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>m2.xlarge</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4570,9 +4576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
